--- a/data/trans_orig/P33B_R4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R4-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>31015</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15986</v>
+        <v>15803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51981</v>
+        <v>52684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07605643343369513</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03920015037584958</v>
+        <v>0.03875169695121783</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.127469574384409</v>
+        <v>0.1291941998521199</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -762,19 +762,19 @@
         <v>49313</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31704</v>
+        <v>32212</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70672</v>
+        <v>70155</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1360313273502234</v>
+        <v>0.1360313273502233</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08745749796418611</v>
+        <v>0.08885908636434948</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1949509699823734</v>
+        <v>0.1935234077229804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -783,19 +783,19 @@
         <v>80328</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55668</v>
+        <v>58730</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111351</v>
+        <v>112247</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1042811186948915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07226781743013283</v>
+        <v>0.07624303162355413</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1445544906888333</v>
+        <v>0.1457171805135472</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>376778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355812</v>
+        <v>355109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>391807</v>
+        <v>391990</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9239435665663051</v>
+        <v>0.9239435665663049</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.872530425615591</v>
+        <v>0.8708058001478799</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.96079984962415</v>
+        <v>0.9612483030487822</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -833,19 +833,19 @@
         <v>313199</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>291840</v>
+        <v>292357</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>330808</v>
+        <v>330300</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8639686726497765</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8050490300176266</v>
+        <v>0.8064765922770196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9125425020358139</v>
+        <v>0.9111409136356503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>343</v>
@@ -854,19 +854,19 @@
         <v>689977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>658954</v>
+        <v>658058</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714637</v>
+        <v>711575</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8957188813051086</v>
+        <v>0.8957188813051085</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8554455093111668</v>
+        <v>0.8542828194864526</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9277321825698671</v>
+        <v>0.9237569683764459</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>40125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27004</v>
+        <v>26930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60901</v>
+        <v>59129</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08413818285322387</v>
+        <v>0.08413818285322389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05662569437453056</v>
+        <v>0.0564704516515521</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1277042639739767</v>
+        <v>0.1239883220889626</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -979,19 +979,19 @@
         <v>67267</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52715</v>
+        <v>52391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85431</v>
+        <v>85328</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1342428020607176</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1052018777984579</v>
+        <v>0.1045558976363987</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1704921507914184</v>
+        <v>0.1702866482091518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -1000,19 +1000,19 @@
         <v>107391</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83857</v>
+        <v>87814</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130556</v>
+        <v>132934</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1098102293206126</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08574595228395743</v>
+        <v>0.08979188799903479</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1334963606343266</v>
+        <v>0.1359285893433544</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>436765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>415989</v>
+        <v>417761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>449886</v>
+        <v>449960</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9158618171467762</v>
+        <v>0.9158618171467761</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8722957360260234</v>
+        <v>0.8760116779110373</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9433743056254696</v>
+        <v>0.9435295483484478</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>402</v>
@@ -1050,19 +1050,19 @@
         <v>433816</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415652</v>
+        <v>415755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>448368</v>
+        <v>448692</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8657571979392823</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8295078492085816</v>
+        <v>0.8297133517908484</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8947981222015419</v>
+        <v>0.8954441023636013</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -1071,19 +1071,19 @@
         <v>870582</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>847417</v>
+        <v>845039</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>894116</v>
+        <v>890159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8901897706793874</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8665036393656734</v>
+        <v>0.8640714106566456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9142540477160426</v>
+        <v>0.9102081120009651</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>77942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59287</v>
+        <v>61948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96992</v>
+        <v>98175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1259421405730519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09579902463554484</v>
+        <v>0.1000990685069218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1567238679396496</v>
+        <v>0.1586355017245596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>142</v>
@@ -1196,19 +1196,19 @@
         <v>107548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90953</v>
+        <v>91732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124248</v>
+        <v>122834</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1728684637010593</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1461947761897049</v>
+        <v>0.1474454311962536</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1997102403080242</v>
+        <v>0.1974374973923297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>208</v>
@@ -1217,19 +1217,19 @@
         <v>185490</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161367</v>
+        <v>162674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>208859</v>
+        <v>210313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1494671018293099</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1300287828514859</v>
+        <v>0.1310820622626274</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1682975478997169</v>
+        <v>0.1694691694520865</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>540929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>521879</v>
+        <v>520696</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>559584</v>
+        <v>556923</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8740578594269482</v>
+        <v>0.8740578594269484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8432761320603501</v>
+        <v>0.8413644982754402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.904200975364455</v>
+        <v>0.8999009314930783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>704</v>
@@ -1267,19 +1267,19 @@
         <v>514591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>497891</v>
+        <v>499305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>531186</v>
+        <v>530407</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8271315362989408</v>
+        <v>0.8271315362989405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8002897596919765</v>
+        <v>0.8025625026076703</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8538052238102954</v>
+        <v>0.8525545688037462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1182</v>
@@ -1288,19 +1288,19 @@
         <v>1055520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1032151</v>
+        <v>1030697</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1079643</v>
+        <v>1078336</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.85053289817069</v>
+        <v>0.8505328981706901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8317024521002827</v>
+        <v>0.8305308305479134</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8699712171485141</v>
+        <v>0.8689179377373726</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>95544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77916</v>
+        <v>79181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116668</v>
+        <v>117113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.136371109785431</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1112110596448589</v>
+        <v>0.1130164637397029</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1665222271378415</v>
+        <v>0.167157584942576</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>253</v>
@@ -1413,19 +1413,19 @@
         <v>168626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151499</v>
+        <v>149801</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189539</v>
+        <v>188057</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.228957020248675</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2057024604603688</v>
+        <v>0.2033972628047518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2573523641757415</v>
+        <v>0.2553405969431647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>340</v>
@@ -1434,19 +1434,19 @@
         <v>264170</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>237910</v>
+        <v>237803</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>290623</v>
+        <v>292130</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1838197795199796</v>
+        <v>0.1838197795199797</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1655473348506495</v>
+        <v>0.1654726726726896</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2022270586041196</v>
+        <v>0.2032756454209345</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>605073</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>583949</v>
+        <v>583504</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>622701</v>
+        <v>621436</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.863628890214569</v>
+        <v>0.8636288902145689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8334777728621585</v>
+        <v>0.832842415057424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8887889403551412</v>
+        <v>0.886983536260297</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>887</v>
@@ -1484,19 +1484,19 @@
         <v>567869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>546956</v>
+        <v>548438</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>584996</v>
+        <v>586694</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7710429797513249</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7426476358242589</v>
+        <v>0.7446594030568352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7942975395396313</v>
+        <v>0.7966027371952482</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1465</v>
@@ -1505,19 +1505,19 @@
         <v>1172942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1146489</v>
+        <v>1144982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1199202</v>
+        <v>1199309</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8161802204800204</v>
+        <v>0.8161802204800203</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7977729413958804</v>
+        <v>0.7967243545790655</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8344526651493506</v>
+        <v>0.8345273273273103</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>96945</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79333</v>
+        <v>79797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115898</v>
+        <v>114710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1593789896138209</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1304246773461191</v>
+        <v>0.1311875226898863</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1905391944540577</v>
+        <v>0.1885851094778074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>290</v>
@@ -1630,19 +1630,19 @@
         <v>182811</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>165278</v>
+        <v>162447</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200899</v>
+        <v>201286</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3006103234505235</v>
+        <v>0.3006103234505236</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2717795332117096</v>
+        <v>0.2671243485230768</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3303531424907062</v>
+        <v>0.3309896578520543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>399</v>
@@ -1651,19 +1651,19 @@
         <v>279755</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>255325</v>
+        <v>253240</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>305936</v>
+        <v>307195</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2299869959925953</v>
+        <v>0.2299869959925952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2099022974601434</v>
+        <v>0.208188682031983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2515100985488659</v>
+        <v>0.2525450666831676</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>511320</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>492367</v>
+        <v>493555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>528932</v>
+        <v>528468</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8406210103861792</v>
+        <v>0.840621010386179</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8094608055459425</v>
+        <v>0.8114148905221927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8695753226538809</v>
+        <v>0.8688124773101138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>711</v>
@@ -1701,19 +1701,19 @@
         <v>425322</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>407234</v>
+        <v>406847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>442855</v>
+        <v>445686</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6993896765494765</v>
+        <v>0.6993896765494766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.669646857509294</v>
+        <v>0.6690103421479457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7282204667882909</v>
+        <v>0.7328756514769232</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1264</v>
@@ -1722,19 +1722,19 @@
         <v>936642</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>910461</v>
+        <v>909202</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>961072</v>
+        <v>963157</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7700130040074048</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.748489901451134</v>
+        <v>0.7474549333168324</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7900977025398565</v>
+        <v>0.7918113179680171</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>64881</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52511</v>
+        <v>52357</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77419</v>
+        <v>76428</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1593821589741674</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1289940942375745</v>
+        <v>0.1286171524970396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1901806455023806</v>
+        <v>0.1877467840732802</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>208</v>
@@ -1847,19 +1847,19 @@
         <v>114732</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>102463</v>
+        <v>100528</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>128336</v>
+        <v>127395</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2612505931828834</v>
+        <v>0.2612505931828833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2333137269906665</v>
+        <v>0.2289066790574116</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2922263414991374</v>
+        <v>0.2900849941859479</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>304</v>
@@ -1868,19 +1868,19 @@
         <v>179614</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>160373</v>
+        <v>161961</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>197108</v>
+        <v>197771</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2122476097798303</v>
+        <v>0.2122476097798304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1895115581573059</v>
+        <v>0.1913871593402572</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2329202780175566</v>
+        <v>0.2337041521591641</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>342199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>329661</v>
+        <v>330652</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>354569</v>
+        <v>354723</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8406178410258326</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8098193544976192</v>
+        <v>0.8122532159267197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8710059057624254</v>
+        <v>0.8713828475029605</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>619</v>
@@ -1918,19 +1918,19 @@
         <v>324434</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>310830</v>
+        <v>311771</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>336703</v>
+        <v>338638</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7387494068171168</v>
+        <v>0.7387494068171166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7077736585008634</v>
+        <v>0.7099150058140524</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7666862730093336</v>
+        <v>0.7710933209425885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1093</v>
@@ -1939,19 +1939,19 @@
         <v>666632</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>649138</v>
+        <v>648475</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>685873</v>
+        <v>684285</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7877523902201695</v>
+        <v>0.7877523902201696</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7670797219824435</v>
+        <v>0.7662958478408358</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8104884418426941</v>
+        <v>0.8086128406597429</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>81398</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69337</v>
+        <v>69556</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95132</v>
+        <v>94371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.262406906395572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2235244283942127</v>
+        <v>0.2242296015439779</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3066827001327748</v>
+        <v>0.3042290383826504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>273</v>
@@ -2064,19 +2064,19 @@
         <v>150391</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>135507</v>
+        <v>135663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166689</v>
+        <v>165145</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3245000058914673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2923859243774984</v>
+        <v>0.2927217290114018</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3596676478653668</v>
+        <v>0.3563366641516297</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>396</v>
@@ -2085,19 +2085,19 @@
         <v>231789</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>212634</v>
+        <v>212689</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>251924</v>
+        <v>253189</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2996035617681515</v>
+        <v>0.2996035617681516</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2748447436655227</v>
+        <v>0.2749157202908514</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3256301324964462</v>
+        <v>0.3272649753922319</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>228800</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>215066</v>
+        <v>215827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>240861</v>
+        <v>240642</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7375930936044279</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.693317299867225</v>
+        <v>0.6957709616173496</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7764755716057873</v>
+        <v>0.7757703984560221</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>606</v>
@@ -2135,19 +2135,19 @@
         <v>313062</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>296764</v>
+        <v>298308</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>327946</v>
+        <v>327790</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6754999941085327</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6403323521346329</v>
+        <v>0.6436633358483698</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7076140756225014</v>
+        <v>0.7072782709885981</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>941</v>
@@ -2156,19 +2156,19 @@
         <v>541863</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>521728</v>
+        <v>520463</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>561018</v>
+        <v>560963</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7003964382318483</v>
+        <v>0.7003964382318484</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6743698675035538</v>
+        <v>0.672735024607768</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7251552563344773</v>
+        <v>0.7250842797091487</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>487850</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>443127</v>
+        <v>445035</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>535932</v>
+        <v>530216</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1382122881106498</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1255420358413234</v>
+        <v>0.1260824944610589</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1518345094474919</v>
+        <v>0.150215052640227</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1248</v>
@@ -2281,19 +2281,19 @@
         <v>840688</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>795830</v>
+        <v>795314</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>888358</v>
+        <v>886845</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2252054357591612</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2131889006706216</v>
+        <v>0.2130505169081358</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2379755458396124</v>
+        <v>0.2375701173601832</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1767</v>
@@ -2302,19 +2302,19 @@
         <v>1328538</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1268249</v>
+        <v>1263546</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1397855</v>
+        <v>1396808</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1829262407612788</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1746251215628594</v>
+        <v>0.1739775242364132</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1924705459626205</v>
+        <v>0.1923264216905522</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3041864</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2993782</v>
+        <v>2999498</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3086587</v>
+        <v>3084679</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8617877118893501</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8481654905525076</v>
+        <v>0.8497849473597729</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8744579641586765</v>
+        <v>0.8739175055389408</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4112</v>
@@ -2352,19 +2352,19 @@
         <v>2892294</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2844624</v>
+        <v>2846137</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2937152</v>
+        <v>2937668</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7747945642408387</v>
+        <v>0.7747945642408386</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7620244541603872</v>
+        <v>0.7624298826398167</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.786811099329378</v>
+        <v>0.7869494830918643</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6966</v>
@@ -2373,19 +2373,19 @@
         <v>5934158</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5864841</v>
+        <v>5865888</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5994447</v>
+        <v>5999150</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8170737592387212</v>
+        <v>0.8170737592387213</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8075294540373796</v>
+        <v>0.8076735783094479</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8253748784371404</v>
+        <v>0.826022475763587</v>
       </c>
     </row>
     <row r="27">
